--- a/medicine/Mort/Cimetière_militaire_français_d’Atapkamé/Cimetière_militaire_français_d’Atapkamé.xlsx
+++ b/medicine/Mort/Cimetière_militaire_français_d’Atapkamé/Cimetière_militaire_français_d’Atapkamé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_d%E2%80%99Atapkam%C3%A9</t>
+          <t>Cimetière_militaire_français_d’Atapkamé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire français d'Atakpamé, situé dans la Région des Plateaux au Togo, est un cimetière français qui date de la seconde guerre mondiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_fran%C3%A7ais_d%E2%80%99Atapkam%C3%A9</t>
+          <t>Cimetière_militaire_français_d’Atapkamé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découvert en novembre 2018  et réhabilité en avril 2019, le cimetière est situé dans la ville d'Atakpamé au quartier Oke-Epka. Il compte quinze tombes dont celles de trois soldats togolais qui ont servi sous le drapeau français au Togo dans le régiment des tirailleurs du Dahomey-Togo. Le cimetière est réhabilité par l'ambassade de France au Togo en collaboration avec la mairie d'Atapkamé[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découvert en novembre 2018  et réhabilité en avril 2019, le cimetière est situé dans la ville d'Atakpamé au quartier Oke-Epka. Il compte quinze tombes dont celles de trois soldats togolais qui ont servi sous le drapeau français au Togo dans le régiment des tirailleurs du Dahomey-Togo. Le cimetière est réhabilité par l'ambassade de France au Togo en collaboration avec la mairie d'Atapkamé.
 </t>
         </is>
       </c>
